--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl12-Ackr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl12-Ackr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Ackr4</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>40.32940166666667</v>
+        <v>1.005755333333333</v>
       </c>
       <c r="H2">
-        <v>120.988205</v>
+        <v>3.017266</v>
       </c>
       <c r="I2">
-        <v>0.470577043986324</v>
+        <v>0.01048729000197281</v>
       </c>
       <c r="J2">
-        <v>0.470577043986324</v>
+        <v>0.01048729000197281</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.4233336666666667</v>
+        <v>0.180428</v>
       </c>
       <c r="N2">
-        <v>1.270001</v>
+        <v>0.541284</v>
       </c>
       <c r="O2">
-        <v>0.8727815388294702</v>
+        <v>0.6724860231084607</v>
       </c>
       <c r="P2">
-        <v>0.8727815388294702</v>
+        <v>0.6724860231084607</v>
       </c>
       <c r="Q2">
-        <v>17.07279348202278</v>
+        <v>0.1814664232826667</v>
       </c>
       <c r="R2">
-        <v>153.655141338205</v>
+        <v>1.633197809544</v>
       </c>
       <c r="S2">
-        <v>0.4107109565882071</v>
+        <v>0.007052555946611814</v>
       </c>
       <c r="T2">
-        <v>0.4107109565882071</v>
+        <v>0.007052555946611814</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>40.32940166666667</v>
+        <v>1.005755333333333</v>
       </c>
       <c r="H3">
-        <v>120.988205</v>
+        <v>3.017266</v>
       </c>
       <c r="I3">
-        <v>0.470577043986324</v>
+        <v>0.01048729000197281</v>
       </c>
       <c r="J3">
-        <v>0.470577043986324</v>
+        <v>0.01048729000197281</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.051827</v>
       </c>
       <c r="O3">
-        <v>0.03561701826448558</v>
+        <v>0.06438936513852653</v>
       </c>
       <c r="P3">
-        <v>0.03561701826448558</v>
+        <v>0.06438936513852653</v>
       </c>
       <c r="Q3">
-        <v>0.6967173000594444</v>
+        <v>0.01737509388688889</v>
       </c>
       <c r="R3">
-        <v>6.270455700535</v>
+        <v>0.156375844982</v>
       </c>
       <c r="S3">
-        <v>0.01676055117050854</v>
+        <v>0.0006752699452506456</v>
       </c>
       <c r="T3">
-        <v>0.01676055117050854</v>
+        <v>0.0006752699452506456</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>27</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>40.32940166666667</v>
+        <v>1.005755333333333</v>
       </c>
       <c r="H4">
-        <v>120.988205</v>
+        <v>3.017266</v>
       </c>
       <c r="I4">
-        <v>0.470577043986324</v>
+        <v>0.01048729000197281</v>
       </c>
       <c r="J4">
-        <v>0.470577043986324</v>
+        <v>0.01048729000197281</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.04443033333333334</v>
+        <v>0.07059633333333333</v>
       </c>
       <c r="N4">
-        <v>0.133291</v>
+        <v>0.211789</v>
       </c>
       <c r="O4">
-        <v>0.09160144290604412</v>
+        <v>0.2631246117530128</v>
       </c>
       <c r="P4">
-        <v>0.09160144290604412</v>
+        <v>0.2631246117530128</v>
       </c>
       <c r="Q4">
-        <v>1.791848759183889</v>
+        <v>0.07100263876377777</v>
       </c>
       <c r="R4">
-        <v>16.126638832655</v>
+        <v>0.6390237488739999</v>
       </c>
       <c r="S4">
-        <v>0.04310553622760827</v>
+        <v>0.002759464110110348</v>
       </c>
       <c r="T4">
-        <v>0.04310553622760827</v>
+        <v>0.002759464110110348</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.718179666666666</v>
+        <v>38.755371</v>
       </c>
       <c r="H5">
-        <v>29.154539</v>
+        <v>116.266113</v>
       </c>
       <c r="I5">
-        <v>0.1133949940112261</v>
+        <v>0.4041130097356814</v>
       </c>
       <c r="J5">
-        <v>0.1133949940112261</v>
+        <v>0.4041130097356814</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.4233336666666667</v>
+        <v>0.180428</v>
       </c>
       <c r="N5">
-        <v>1.270001</v>
+        <v>0.541284</v>
       </c>
       <c r="O5">
-        <v>0.8727815388294702</v>
+        <v>0.6724860231084607</v>
       </c>
       <c r="P5">
-        <v>0.8727815388294702</v>
+        <v>0.6724860231084607</v>
       </c>
       <c r="Q5">
-        <v>4.114032631615444</v>
+        <v>6.992554078787999</v>
       </c>
       <c r="R5">
-        <v>37.026293684539</v>
+        <v>62.93298670909199</v>
       </c>
       <c r="S5">
-        <v>0.09896905736867648</v>
+        <v>0.2717603508035391</v>
       </c>
       <c r="T5">
-        <v>0.09896905736867649</v>
+        <v>0.2717603508035391</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.718179666666666</v>
+        <v>38.755371</v>
       </c>
       <c r="H6">
-        <v>29.154539</v>
+        <v>116.266113</v>
       </c>
       <c r="I6">
-        <v>0.1133949940112261</v>
+        <v>0.4041130097356814</v>
       </c>
       <c r="J6">
-        <v>0.1133949940112261</v>
+        <v>0.4041130097356814</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -815,22 +815,22 @@
         <v>0.051827</v>
       </c>
       <c r="O6">
-        <v>0.03561701826448558</v>
+        <v>0.06438936513852653</v>
       </c>
       <c r="P6">
-        <v>0.03561701826448558</v>
+        <v>0.06438936513852653</v>
       </c>
       <c r="Q6">
-        <v>0.1678880325281111</v>
+        <v>0.6695248709389999</v>
       </c>
       <c r="R6">
-        <v>1.510992292753</v>
+        <v>6.025723838450999</v>
       </c>
       <c r="S6">
-        <v>0.004038791572799073</v>
+        <v>0.02602058014109971</v>
       </c>
       <c r="T6">
-        <v>0.004038791572799074</v>
+        <v>0.02602058014109971</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.718179666666666</v>
+        <v>38.755371</v>
       </c>
       <c r="H7">
-        <v>29.154539</v>
+        <v>116.266113</v>
       </c>
       <c r="I7">
-        <v>0.1133949940112261</v>
+        <v>0.4041130097356814</v>
       </c>
       <c r="J7">
-        <v>0.1133949940112261</v>
+        <v>0.4041130097356814</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.04443033333333334</v>
+        <v>0.07059633333333333</v>
       </c>
       <c r="N7">
-        <v>0.133291</v>
+        <v>0.211789</v>
       </c>
       <c r="O7">
-        <v>0.09160144290604412</v>
+        <v>0.2631246117530128</v>
       </c>
       <c r="P7">
-        <v>0.09160144290604412</v>
+        <v>0.2631246117530128</v>
       </c>
       <c r="Q7">
-        <v>0.4317819619832223</v>
+        <v>2.735987089573</v>
       </c>
       <c r="R7">
-        <v>3.886037657849001</v>
+        <v>24.623883806157</v>
       </c>
       <c r="S7">
-        <v>0.01038714506975054</v>
+        <v>0.1063320787910427</v>
       </c>
       <c r="T7">
-        <v>0.01038714506975054</v>
+        <v>0.1063320787910427</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>35.65443533333333</v>
+        <v>7.988471999999999</v>
       </c>
       <c r="H8">
-        <v>106.963306</v>
+        <v>23.965416</v>
       </c>
       <c r="I8">
-        <v>0.41602796200245</v>
+        <v>0.08329801469605898</v>
       </c>
       <c r="J8">
-        <v>0.41602796200245</v>
+        <v>0.08329801469605898</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.4233336666666667</v>
+        <v>0.180428</v>
       </c>
       <c r="N8">
-        <v>1.270001</v>
+        <v>0.541284</v>
       </c>
       <c r="O8">
-        <v>0.8727815388294702</v>
+        <v>0.6724860231084607</v>
       </c>
       <c r="P8">
-        <v>0.8727815388294702</v>
+        <v>0.6724860231084607</v>
       </c>
       <c r="Q8">
-        <v>15.09372284258956</v>
+        <v>1.441344026016</v>
       </c>
       <c r="R8">
-        <v>135.843505583306</v>
+        <v>12.972096234144</v>
       </c>
       <c r="S8">
-        <v>0.3631015248725866</v>
+        <v>0.05601675063578282</v>
       </c>
       <c r="T8">
-        <v>0.3631015248725866</v>
+        <v>0.05601675063578282</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>35.65443533333333</v>
+        <v>7.988471999999999</v>
       </c>
       <c r="H9">
-        <v>106.963306</v>
+        <v>23.965416</v>
       </c>
       <c r="I9">
-        <v>0.41602796200245</v>
+        <v>0.08329801469605898</v>
       </c>
       <c r="J9">
-        <v>0.41602796200245</v>
+        <v>0.08329801469605898</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,22 +1001,22 @@
         <v>0.051827</v>
       </c>
       <c r="O9">
-        <v>0.03561701826448558</v>
+        <v>0.06438936513852653</v>
       </c>
       <c r="P9">
-        <v>0.03561701826448558</v>
+        <v>0.06438936513852653</v>
       </c>
       <c r="Q9">
-        <v>0.6159541400068888</v>
+        <v>0.138006179448</v>
       </c>
       <c r="R9">
-        <v>5.543587260061999</v>
+        <v>1.242055615032</v>
       </c>
       <c r="S9">
-        <v>0.01481767552117797</v>
+        <v>0.00536350628357889</v>
       </c>
       <c r="T9">
-        <v>0.01481767552117797</v>
+        <v>0.00536350628357889</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>27</v>
@@ -1039,46 +1039,232 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>35.65443533333333</v>
+        <v>7.988471999999999</v>
       </c>
       <c r="H10">
-        <v>106.963306</v>
+        <v>23.965416</v>
       </c>
       <c r="I10">
-        <v>0.41602796200245</v>
+        <v>0.08329801469605898</v>
       </c>
       <c r="J10">
-        <v>0.41602796200245</v>
+        <v>0.08329801469605898</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.07059633333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.211789</v>
+      </c>
+      <c r="O10">
+        <v>0.2631246117530128</v>
+      </c>
+      <c r="P10">
+        <v>0.2631246117530128</v>
+      </c>
+      <c r="Q10">
+        <v>0.5639568321359999</v>
+      </c>
+      <c r="R10">
+        <v>5.075611489223999</v>
+      </c>
+      <c r="S10">
+        <v>0.02191775777669728</v>
+      </c>
+      <c r="T10">
+        <v>0.02191775777669728</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>48.15271133333334</v>
+      </c>
+      <c r="H11">
+        <v>144.458134</v>
+      </c>
+      <c r="I11">
+        <v>0.5021016855662869</v>
+      </c>
+      <c r="J11">
+        <v>0.5021016855662868</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.180428</v>
+      </c>
+      <c r="N11">
+        <v>0.541284</v>
+      </c>
+      <c r="O11">
+        <v>0.6724860231084607</v>
+      </c>
+      <c r="P11">
+        <v>0.6724860231084607</v>
+      </c>
+      <c r="Q11">
+        <v>8.688097400450667</v>
+      </c>
+      <c r="R11">
+        <v>78.192876604056</v>
+      </c>
+      <c r="S11">
+        <v>0.3376563657225271</v>
+      </c>
+      <c r="T11">
+        <v>0.337656365722527</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>48.15271133333334</v>
+      </c>
+      <c r="H12">
+        <v>144.458134</v>
+      </c>
+      <c r="I12">
+        <v>0.5021016855662869</v>
+      </c>
+      <c r="J12">
+        <v>0.5021016855662868</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M10">
-        <v>0.04443033333333334</v>
-      </c>
-      <c r="N10">
-        <v>0.133291</v>
-      </c>
-      <c r="O10">
-        <v>0.09160144290604412</v>
-      </c>
-      <c r="P10">
-        <v>0.09160144290604412</v>
-      </c>
-      <c r="Q10">
-        <v>1.584138446671778</v>
-      </c>
-      <c r="R10">
-        <v>14.257246020046</v>
-      </c>
-      <c r="S10">
-        <v>0.03810876160868532</v>
-      </c>
-      <c r="T10">
-        <v>0.03810876160868532</v>
+      <c r="M12">
+        <v>0.01727566666666666</v>
+      </c>
+      <c r="N12">
+        <v>0.051827</v>
+      </c>
+      <c r="O12">
+        <v>0.06438936513852653</v>
+      </c>
+      <c r="P12">
+        <v>0.06438936513852653</v>
+      </c>
+      <c r="Q12">
+        <v>0.8318701900908888</v>
+      </c>
+      <c r="R12">
+        <v>7.486831710818</v>
+      </c>
+      <c r="S12">
+        <v>0.03233000876859728</v>
+      </c>
+      <c r="T12">
+        <v>0.03233000876859727</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>48.15271133333334</v>
+      </c>
+      <c r="H13">
+        <v>144.458134</v>
+      </c>
+      <c r="I13">
+        <v>0.5021016855662869</v>
+      </c>
+      <c r="J13">
+        <v>0.5021016855662868</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.07059633333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.211789</v>
+      </c>
+      <c r="O13">
+        <v>0.2631246117530128</v>
+      </c>
+      <c r="P13">
+        <v>0.2631246117530128</v>
+      </c>
+      <c r="Q13">
+        <v>3.399404860191778</v>
+      </c>
+      <c r="R13">
+        <v>30.594643741726</v>
+      </c>
+      <c r="S13">
+        <v>0.1321153110751626</v>
+      </c>
+      <c r="T13">
+        <v>0.1321153110751625</v>
       </c>
     </row>
   </sheetData>
